--- a/data/data_raw.xlsx
+++ b/data/data_raw.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10418"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6114134\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zwang/GitHub/fc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45376F98-BE96-3B42-A9BE-251626D1B6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3520" yWindow="1540" windowWidth="20720" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="我的数列" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>GDP</t>
   </si>
@@ -56,11 +58,14 @@
   <si>
     <t>RMB per sqm; Average selling price of commercial buildings; Seasonally adjusted</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -191,6 +196,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -226,6 +248,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,22 +440,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD143"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -436,2896 +480,2923 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>31382</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>65.3</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>65.3</v>
+        <v>64.2</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
-        <v>64.2</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>65.599999999999994</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>66.400000000000006</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>73.900000000000006</v>
+        <v>71.5</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>71.5</v>
+        <v>71.8</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>71.8</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>73.099999999999994</v>
+        <v>75.3</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>75.3</v>
+        <v>73.3</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <v>73.3</v>
+        <v>73.8</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
-        <v>73.8</v>
+        <v>72.7</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>72.7</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>71.599999999999994</v>
+        <v>69.3</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>69.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>68.599999999999994</v>
+        <v>69.2</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <v>69.2</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <v>74.900000000000006</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>75.900000000000006</v>
+        <v>78.2</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
-        <v>78.2</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
-        <v>81.400000000000006</v>
+        <v>84.3</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <v>84.3</v>
+        <v>83.3</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
-        <v>83.3</v>
+        <v>82.9</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
-        <v>82.9</v>
+        <v>84.2</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
-        <v>84.2</v>
+        <v>85.6</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>33573</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>33664</v>
+      </c>
+      <c r="B27" s="2">
+        <v>607.26647209926705</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
-        <v>85.6</v>
+        <v>82.1</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B28" s="2">
-        <v>607.26647209926705</v>
+        <v>658.260703661599</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
-        <v>82.1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B29" s="2">
-        <v>658.260703661599</v>
+        <v>699.96977782316299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <v>81.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B30" s="2">
-        <v>699.96977782316299</v>
+        <v>736.47240517078899</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
-        <v>78.3</v>
+        <v>82.4</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B31" s="2">
-        <v>736.47240517078899</v>
+        <v>788.35071781593797</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
-        <v>82.4</v>
+        <v>86.1</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B32" s="2">
-        <v>788.35071781593797</v>
+        <v>849.33694652488202</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
-        <v>86.1</v>
+        <v>84.8</v>
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B33" s="2">
-        <v>849.33694652488202</v>
+        <v>913.53069763767201</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
-        <v>84.8</v>
+        <v>82.3</v>
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B34" s="2">
-        <v>913.53069763767201</v>
+        <v>988.35421944391703</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
-        <v>82.3</v>
+        <v>85</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B35" s="2">
-        <v>988.35421944391703</v>
+        <v>1081.4270638051</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
-        <v>85</v>
+        <v>82.3</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B36" s="2">
-        <v>1081.4270638051</v>
+        <v>1169.2916223669799</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
-        <v>82.3</v>
+        <v>80.8</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B37" s="2">
-        <v>1169.2916223669799</v>
+        <v>1253.28934536159</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <v>80.8</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B38" s="2">
-        <v>1253.28934536159</v>
+        <v>1324.23138428935</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2">
-        <v>79.099999999999994</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B39" s="2">
-        <v>1324.23138428935</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>1397.675867146</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.0336677757707804</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2">
-        <v>78.400000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B40" s="2">
-        <v>1397.675867146</v>
+        <v>1491.96205009035</v>
       </c>
       <c r="C40" s="2">
-        <v>4.0336677757707804</v>
+        <v>6.5496160473462197</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
-        <v>76.8</v>
+        <v>75.2</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B41" s="2">
-        <v>1491.96205009035</v>
+        <v>1576.79514085133</v>
       </c>
       <c r="C41" s="2">
-        <v>6.5496160473462197</v>
+        <v>8.7331176916973092</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B42" s="2">
-        <v>1576.79514085133</v>
+        <v>1632.43195693857</v>
       </c>
       <c r="C42" s="2">
-        <v>8.7331176916973092</v>
+        <v>9.9744775457518102</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2">
+        <v>6080.3689999999997</v>
+      </c>
       <c r="F42" s="2">
-        <v>75</v>
+        <v>77.8</v>
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B43" s="2">
-        <v>1632.43195693857</v>
+        <v>1686.60150844644</v>
       </c>
       <c r="C43" s="2">
-        <v>9.9744775457518102</v>
+        <v>13.029945007875</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
-        <v>6080.3689999999997</v>
+        <v>6286.7250000000004</v>
       </c>
       <c r="F43" s="2">
-        <v>77.8</v>
+        <v>76.8</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B44" s="2">
-        <v>1686.60150844644</v>
+        <v>1755.7788189573901</v>
       </c>
       <c r="C44" s="2">
-        <v>13.029945007875</v>
+        <v>14.691274681198401</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
-        <v>6286.7250000000004</v>
+        <v>6684.3339999999998</v>
       </c>
       <c r="F44" s="2">
-        <v>76.8</v>
+        <v>79</v>
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B45" s="2">
-        <v>1755.7788189573901</v>
+        <v>1819.2541081775</v>
       </c>
       <c r="C45" s="2">
-        <v>14.691274681198401</v>
+        <v>15.513956589607201</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
-        <v>6684.3339999999998</v>
+        <v>6885.0370000000003</v>
       </c>
       <c r="F45" s="2">
-        <v>79</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B46" s="2">
-        <v>1819.2541081775</v>
+        <v>1890.7636422371099</v>
       </c>
       <c r="C46" s="2">
-        <v>15.513956589607201</v>
+        <v>16.1342482261269</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
-        <v>6885.0370000000003</v>
+        <v>7310.9719999999998</v>
       </c>
       <c r="F46" s="2">
-        <v>78.400000000000006</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B47" s="2">
-        <v>1890.7636422371099</v>
+        <v>1918.36459234773</v>
       </c>
       <c r="C47" s="2">
-        <v>16.1342482261269</v>
+        <v>16.237394005693002</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
-        <v>7310.9719999999998</v>
+        <v>7743.558</v>
       </c>
       <c r="F47" s="2">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83.7</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2240.1275621416498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B48" s="2">
-        <v>1918.36459234773</v>
+        <v>1967.7173291823899</v>
       </c>
       <c r="C48" s="2">
-        <v>16.237394005693002</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>16.563316651539001</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10.234925326798701</v>
+      </c>
       <c r="E48" s="2">
-        <v>7743.558</v>
+        <v>7974.1080000000002</v>
       </c>
       <c r="F48" s="2">
-        <v>83.7</v>
+        <v>84.1</v>
       </c>
       <c r="G48" s="2">
-        <v>2240.1275621416498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1968.17912444641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B49" s="2">
-        <v>1967.7173291823899</v>
+        <v>2009.9248604419799</v>
       </c>
       <c r="C49" s="2">
-        <v>16.563316651539001</v>
+        <v>16.1916954058328</v>
       </c>
       <c r="D49" s="2">
-        <v>10.234925326798701</v>
+        <v>9.5222663452818992</v>
       </c>
       <c r="E49" s="2">
-        <v>7974.1080000000002</v>
+        <v>8249.4279999999999</v>
       </c>
       <c r="F49" s="2">
-        <v>84.1</v>
+        <v>85.3</v>
       </c>
       <c r="G49" s="2">
-        <v>1968.17912444641</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2057.61114840134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B50" s="2">
-        <v>2009.9248604419799</v>
+        <v>2059.27673352287</v>
       </c>
       <c r="C50" s="2">
-        <v>16.1916954058328</v>
+        <v>15.5302488818505</v>
       </c>
       <c r="D50" s="2">
-        <v>9.5222663452818992</v>
+        <v>9.2944307065013092</v>
       </c>
       <c r="E50" s="2">
-        <v>8249.4279999999999</v>
+        <v>8648.51</v>
       </c>
       <c r="F50" s="2">
-        <v>85.3</v>
+        <v>88.1</v>
       </c>
       <c r="G50" s="2">
-        <v>2057.61114840134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2041.1487936155199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B51" s="2">
-        <v>2059.27673352287</v>
+        <v>2063.4581629351601</v>
       </c>
       <c r="C51" s="2">
-        <v>15.5302488818505</v>
+        <v>15.526486368807401</v>
       </c>
       <c r="D51" s="2">
-        <v>9.2944307065013092</v>
+        <v>8.0869076471500492</v>
       </c>
       <c r="E51" s="2">
-        <v>8648.51</v>
+        <v>8756.2970000000005</v>
       </c>
       <c r="F51" s="2">
-        <v>88.1</v>
+        <v>87.5</v>
       </c>
       <c r="G51" s="2">
-        <v>2041.1487936155199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2081.4347707381899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B52" s="2">
-        <v>2063.4581629351601</v>
+        <v>2088.3875752367999</v>
       </c>
       <c r="C52" s="2">
-        <v>15.526486368807401</v>
+        <v>14.591644754552799</v>
       </c>
       <c r="D52" s="2">
-        <v>8.0869076471500492</v>
+        <v>6.62700273967077</v>
       </c>
       <c r="E52" s="2">
-        <v>8756.2970000000005</v>
+        <v>9021.8529999999992</v>
       </c>
       <c r="F52" s="2">
-        <v>87.5</v>
+        <v>89.1</v>
       </c>
       <c r="G52" s="2">
-        <v>2081.4347707381899</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2173.3616641057001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B53" s="2">
-        <v>2088.3875752367999</v>
+        <v>2139.8051161929002</v>
       </c>
       <c r="C53" s="2">
-        <v>14.591644754552799</v>
+        <v>14.1804720399698</v>
       </c>
       <c r="D53" s="2">
-        <v>6.62700273967077</v>
+        <v>5.0107315411506699</v>
       </c>
       <c r="E53" s="2">
-        <v>9021.8529999999992</v>
+        <v>9447.1020000000008</v>
       </c>
       <c r="F53" s="2">
-        <v>89.1</v>
+        <v>92.5</v>
       </c>
       <c r="G53" s="2">
-        <v>2173.3616641057001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2134.6365973218599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B54" s="2">
-        <v>2139.8051161929002</v>
+        <v>2214.7974169232202</v>
       </c>
       <c r="C54" s="2">
-        <v>14.1804720399698</v>
+        <v>13.8089045358465</v>
       </c>
       <c r="D54" s="2">
-        <v>5.0107315411506699</v>
+        <v>4.0571590289787602</v>
       </c>
       <c r="E54" s="2">
-        <v>9447.1020000000008</v>
+        <v>9809.5969999999998</v>
       </c>
       <c r="F54" s="2">
-        <v>92.5</v>
+        <v>94.7</v>
       </c>
       <c r="G54" s="2">
-        <v>2134.6365973218599</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2068.5723041985302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B55" s="2">
-        <v>2214.7974169232202</v>
+        <v>2198.1387210442999</v>
       </c>
       <c r="C55" s="2">
-        <v>13.8089045358465</v>
+        <v>13.0619315308601</v>
       </c>
       <c r="D55" s="2">
-        <v>4.0571590289787602</v>
+        <v>3.9590628118446798</v>
       </c>
       <c r="E55" s="2">
-        <v>9809.5969999999998</v>
+        <v>9998.6209999999992</v>
       </c>
       <c r="F55" s="2">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="G55" s="2">
-        <v>2068.5723041985302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1974.2612886644999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B56" s="2">
-        <v>2198.1387210442999</v>
+        <v>2219.9816326477298</v>
       </c>
       <c r="C56" s="2">
-        <v>13.0619315308601</v>
+        <v>11.861874109352501</v>
       </c>
       <c r="D56" s="2">
-        <v>3.9590628118446798</v>
+        <v>2.9195156095195101</v>
       </c>
       <c r="E56" s="2">
-        <v>9998.6209999999992</v>
+        <v>10304.442999999999</v>
       </c>
       <c r="F56" s="2">
-        <v>94.8</v>
+        <v>96.2</v>
       </c>
       <c r="G56" s="2">
-        <v>1974.2612886644999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1988.0987664229999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B57" s="2">
-        <v>2219.9816326477298</v>
+        <v>2269.5839645106998</v>
       </c>
       <c r="C57" s="2">
-        <v>11.861874109352501</v>
+        <v>12.5021816061463</v>
       </c>
       <c r="D57" s="2">
-        <v>2.9195156095195101</v>
+        <v>2.67688161585379</v>
       </c>
       <c r="E57" s="2">
-        <v>10304.442999999999</v>
+        <v>10620.482</v>
       </c>
       <c r="F57" s="2">
-        <v>96.2</v>
+        <v>97.8</v>
       </c>
       <c r="G57" s="2">
-        <v>1988.0987664229999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2033.21794875353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B58" s="2">
-        <v>2269.5839645106998</v>
+        <v>2358.7358085135102</v>
       </c>
       <c r="C58" s="2">
-        <v>12.5021816061463</v>
+        <v>11.777599555604301</v>
       </c>
       <c r="D58" s="2">
-        <v>2.67688161585379</v>
+        <v>2.5060129281636199</v>
       </c>
       <c r="E58" s="2">
-        <v>10620.482</v>
+        <v>11834.045</v>
       </c>
       <c r="F58" s="2">
-        <v>97.8</v>
+        <v>109</v>
       </c>
       <c r="G58" s="2">
-        <v>2033.21794875353</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2051.6056647003302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B59" s="2">
-        <v>2358.7358085135102</v>
+        <v>2403.5871694480402</v>
       </c>
       <c r="C59" s="2">
-        <v>11.777599555604301</v>
+        <v>11.8333574378339</v>
       </c>
       <c r="D59" s="2">
-        <v>2.5060129281636199</v>
+        <v>2.4298987314746099</v>
       </c>
       <c r="E59" s="2">
-        <v>11834.045</v>
+        <v>12124.126</v>
       </c>
       <c r="F59" s="2">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="G59" s="2">
-        <v>2051.6056647003302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2068.6573591860501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B60" s="2">
-        <v>2403.5871694480402</v>
+        <v>2472.4042372581298</v>
       </c>
       <c r="C60" s="2">
-        <v>11.8333574378339</v>
+        <v>11.0626900988135</v>
       </c>
       <c r="D60" s="2">
-        <v>2.4298987314746099</v>
+        <v>2.3971827068509599</v>
       </c>
       <c r="E60" s="2">
-        <v>12124.126</v>
+        <v>12157.471</v>
       </c>
       <c r="F60" s="2">
-        <v>108.9</v>
+        <v>105.5</v>
       </c>
       <c r="G60" s="2">
-        <v>2068.6573591860501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2056.7838306260701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B61" s="2">
-        <v>2472.4042372581298</v>
+        <v>2533.9341443786402</v>
       </c>
       <c r="C61" s="2">
-        <v>11.0626900988135</v>
+        <v>11.5539005279583</v>
       </c>
       <c r="D61" s="2">
-        <v>2.3971827068509599</v>
+        <v>2.3298914683265401</v>
       </c>
       <c r="E61" s="2">
-        <v>12157.471</v>
+        <v>12630.186</v>
       </c>
       <c r="F61" s="2">
-        <v>105.5</v>
+        <v>106.6</v>
       </c>
       <c r="G61" s="2">
-        <v>2056.7838306260701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2069.0185521379999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B62" s="2">
-        <v>2533.9341443786402</v>
+        <v>2607.3957230348601</v>
       </c>
       <c r="C62" s="2">
-        <v>11.5539005279583</v>
+        <v>11.9766281194781</v>
       </c>
       <c r="D62" s="2">
-        <v>2.3298914683265401</v>
+        <v>2.3732603868261601</v>
       </c>
       <c r="E62" s="2">
-        <v>12630.186</v>
+        <v>13250.683999999999</v>
       </c>
       <c r="F62" s="2">
-        <v>106.6</v>
+        <v>109.4</v>
       </c>
       <c r="G62" s="2">
-        <v>2069.0185521379999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2178.1301567004198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B63" s="2">
-        <v>2607.3957230348601</v>
+        <v>2693.4070207882601</v>
       </c>
       <c r="C63" s="2">
-        <v>11.9766281194781</v>
+        <v>11.498432629502901</v>
       </c>
       <c r="D63" s="2">
-        <v>2.3732603868261601</v>
+        <v>2.5215204644478399</v>
       </c>
       <c r="E63" s="2">
-        <v>13250.683999999999</v>
+        <v>12674.495999999999</v>
       </c>
       <c r="F63" s="2">
-        <v>109.4</v>
+        <v>99.7</v>
       </c>
       <c r="G63" s="2">
-        <v>2178.1301567004198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2333.55589977622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B64" s="2">
-        <v>2693.4070207882601</v>
+        <v>2744.5590563904302</v>
       </c>
       <c r="C64" s="2">
-        <v>11.498432629502901</v>
+        <v>12.325239111989299</v>
       </c>
       <c r="D64" s="2">
-        <v>2.5215204644478399</v>
+        <v>2.3899983107483602</v>
       </c>
       <c r="E64" s="2">
-        <v>12674.495999999999</v>
+        <v>13219.242</v>
       </c>
       <c r="F64" s="2">
-        <v>99.7</v>
+        <v>101.3</v>
       </c>
       <c r="G64" s="2">
-        <v>2333.55589977622</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2293.0838895894999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B65" s="2">
-        <v>2744.5590563904302</v>
+        <v>2792.9222839546701</v>
       </c>
       <c r="C65" s="2">
-        <v>12.325239111989299</v>
+        <v>11.7030562899975</v>
       </c>
       <c r="D65" s="2">
-        <v>2.3899983107483602</v>
+        <v>2.23143133329086</v>
       </c>
       <c r="E65" s="2">
-        <v>13219.242</v>
+        <v>13541.861999999999</v>
       </c>
       <c r="F65" s="2">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
       <c r="G65" s="2">
-        <v>2293.0838895894999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2231.4028125478699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B66" s="2">
-        <v>2792.9222839546701</v>
+        <v>2851.8315783634898</v>
       </c>
       <c r="C66" s="2">
-        <v>11.7030562899975</v>
+        <v>11.529887230843199</v>
       </c>
       <c r="D66" s="2">
-        <v>2.23143133329086</v>
+        <v>2.0880656093793899</v>
       </c>
       <c r="E66" s="2">
-        <v>13541.861999999999</v>
+        <v>13971.897000000001</v>
       </c>
       <c r="F66" s="2">
-        <v>100.9</v>
+        <v>101.6</v>
       </c>
       <c r="G66" s="2">
-        <v>2231.4028125478699</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2310.1595820759198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B67" s="2">
-        <v>2851.8315783634898</v>
+        <v>2920.56815268943</v>
       </c>
       <c r="C67" s="2">
-        <v>11.529887230843199</v>
+        <v>10.9442674351686</v>
       </c>
       <c r="D67" s="2">
-        <v>2.0880656093793899</v>
+        <v>2.0249774413178101</v>
       </c>
       <c r="E67" s="2">
-        <v>13971.897000000001</v>
+        <v>15292.223</v>
       </c>
       <c r="F67" s="2">
-        <v>101.6</v>
+        <v>110.3</v>
       </c>
       <c r="G67" s="2">
-        <v>2310.1595820759198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2304.3593878227398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B68" s="2">
-        <v>2920.56815268943</v>
+        <v>2994.30984695087</v>
       </c>
       <c r="C68" s="2">
-        <v>10.9442674351686</v>
+        <v>11.460805915977</v>
       </c>
       <c r="D68" s="2">
-        <v>2.0249774413178101</v>
+        <v>1.98722144500848</v>
       </c>
       <c r="E68" s="2">
-        <v>15292.223</v>
+        <v>15958.955</v>
       </c>
       <c r="F68" s="2">
-        <v>110.3</v>
+        <v>112.7</v>
       </c>
       <c r="G68" s="2">
-        <v>2304.3593878227398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2299.50063291792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B69" s="2">
-        <v>2994.30984695087</v>
+        <v>3079.7736168963702</v>
       </c>
       <c r="C69" s="2">
-        <v>11.460805915977</v>
+        <v>11.147015793666901</v>
       </c>
       <c r="D69" s="2">
-        <v>1.98722144500848</v>
+        <v>2.0890949724021102</v>
       </c>
       <c r="E69" s="2">
-        <v>15958.955</v>
+        <v>16616.994999999999</v>
       </c>
       <c r="F69" s="2">
-        <v>112.7</v>
+        <v>114.6</v>
       </c>
       <c r="G69" s="2">
-        <v>2299.50063291792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2366.9010343939999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B70" s="2">
-        <v>3079.7736168963702</v>
+        <v>3165.02366378856</v>
       </c>
       <c r="C70" s="2">
-        <v>11.147015793666901</v>
+        <v>11.133910110625999</v>
       </c>
       <c r="D70" s="2">
-        <v>2.0890949724021102</v>
+        <v>2.22348862399248</v>
       </c>
       <c r="E70" s="2">
-        <v>16616.994999999999</v>
+        <v>17248.191999999999</v>
       </c>
       <c r="F70" s="2">
-        <v>114.6</v>
+        <v>116</v>
       </c>
       <c r="G70" s="2">
-        <v>2366.9010343939999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2381.35098117506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B71" s="2">
-        <v>3165.02366378856</v>
+        <v>3292.4707527631499</v>
       </c>
       <c r="C71" s="2">
-        <v>11.133910110625999</v>
+        <v>11.958288977546999</v>
       </c>
       <c r="D71" s="2">
-        <v>2.22348862399248</v>
+        <v>2.1681687554528</v>
       </c>
       <c r="E71" s="2">
-        <v>17248.191999999999</v>
+        <v>18192.474999999999</v>
       </c>
       <c r="F71" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G71" s="2">
-        <v>2381.35098117506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2421.4525731062099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B72" s="2">
-        <v>3292.4707527631499</v>
+        <v>3332.9789496163098</v>
       </c>
       <c r="C72" s="2">
-        <v>11.958288977546999</v>
+        <v>11.5967308331574</v>
       </c>
       <c r="D72" s="2">
-        <v>2.1681687554528</v>
+        <v>2.19187424076306</v>
       </c>
       <c r="E72" s="2">
-        <v>18192.474999999999</v>
+        <v>19428.201000000001</v>
       </c>
       <c r="F72" s="2">
-        <v>119</v>
+        <v>124.4</v>
       </c>
       <c r="G72" s="2">
-        <v>2421.4525731062099</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2425.60243517259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B73" s="2">
-        <v>3332.9789496163098</v>
+        <v>3477.8277902555601</v>
       </c>
       <c r="C73" s="2">
-        <v>11.5967308331574</v>
+        <v>12.2748544484375</v>
       </c>
       <c r="D73" s="2">
-        <v>2.19187424076306</v>
+        <v>2.7095235201347299</v>
       </c>
       <c r="E73" s="2">
-        <v>19428.201000000001</v>
+        <v>20329.133000000002</v>
       </c>
       <c r="F73" s="2">
-        <v>124.4</v>
+        <v>126.5</v>
       </c>
       <c r="G73" s="2">
-        <v>2425.60243517259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2452.0404390952599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B74" s="2">
-        <v>3477.8277902555601</v>
+        <v>3618.1326303871801</v>
       </c>
       <c r="C74" s="2">
-        <v>12.2748544484375</v>
+        <v>14.3834253364278</v>
       </c>
       <c r="D74" s="2">
-        <v>2.7095235201347299</v>
+        <v>2.05436103168763</v>
       </c>
       <c r="E74" s="2">
-        <v>20329.133000000002</v>
+        <v>20829.490000000002</v>
       </c>
       <c r="F74" s="2">
-        <v>126.5</v>
+        <v>125</v>
       </c>
       <c r="G74" s="2">
-        <v>2452.0404390952599</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2475.3762304892198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B75" s="2">
-        <v>3618.1326303871801</v>
+        <v>3795.4197776958799</v>
       </c>
       <c r="C75" s="2">
-        <v>14.3834253364278</v>
+        <v>15.021223065027201</v>
       </c>
       <c r="D75" s="2">
-        <v>2.05436103168763</v>
+        <v>2.1171170722742101</v>
       </c>
       <c r="E75" s="2">
-        <v>20829.490000000002</v>
+        <v>22040.366000000002</v>
       </c>
       <c r="F75" s="2">
-        <v>125</v>
+        <v>128.1</v>
       </c>
       <c r="G75" s="2">
-        <v>2475.3762304892198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2583.4215560693001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B76" s="2">
-        <v>3795.4197776958799</v>
+        <v>3956.6307624053602</v>
       </c>
       <c r="C76" s="2">
-        <v>15.021223065027201</v>
+        <v>16.268867769234799</v>
       </c>
       <c r="D76" s="2">
-        <v>2.1171170722742101</v>
+        <v>2.4480049813104299</v>
       </c>
       <c r="E76" s="2">
-        <v>22040.366000000002</v>
+        <v>22450.757000000001</v>
       </c>
       <c r="F76" s="2">
-        <v>128.1</v>
+        <v>124.5</v>
       </c>
       <c r="G76" s="2">
-        <v>2583.4215560693001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2704.4693553785801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B77" s="2">
-        <v>3956.6307624053602</v>
+        <v>4128.2044143694602</v>
       </c>
       <c r="C77" s="2">
-        <v>16.268867769234799</v>
+        <v>17.286309232796199</v>
       </c>
       <c r="D77" s="2">
-        <v>2.4480049813104299</v>
+        <v>1.9481717856513101</v>
       </c>
       <c r="E77" s="2">
-        <v>22450.757000000001</v>
+        <v>23059.205999999998</v>
       </c>
       <c r="F77" s="2">
-        <v>124.5</v>
+        <v>122.2</v>
       </c>
       <c r="G77" s="2">
-        <v>2704.4693553785801</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2762.3024958945198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B78" s="2">
-        <v>4128.2044143694602</v>
+        <v>4270.0644907525202</v>
       </c>
       <c r="C78" s="2">
-        <v>17.286309232796199</v>
+        <v>16.745070347062601</v>
       </c>
       <c r="D78" s="2">
-        <v>1.9481717856513101</v>
+        <v>1.7913898126763601</v>
       </c>
       <c r="E78" s="2">
-        <v>23059.205999999998</v>
+        <v>23780.027999999998</v>
       </c>
       <c r="F78" s="2">
-        <v>122.2</v>
+        <v>120.9</v>
       </c>
       <c r="G78" s="2">
-        <v>2762.3024958945198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2824.9627146681801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B79" s="2">
-        <v>4270.0644907525202</v>
+        <v>4430.9752330076299</v>
       </c>
       <c r="C79" s="2">
-        <v>16.745070347062601</v>
+        <v>17.666928474762202</v>
       </c>
       <c r="D79" s="2">
-        <v>1.7913898126763601</v>
+        <v>1.97639777504185</v>
       </c>
       <c r="E79" s="2">
-        <v>23780.027999999998</v>
+        <v>24493.141</v>
       </c>
       <c r="F79" s="2">
-        <v>120.9</v>
+        <v>119.5</v>
       </c>
       <c r="G79" s="2">
-        <v>2824.9627146681801</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2914.88241235541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B80" s="2">
-        <v>4430.9752330076299</v>
+        <v>4565.7836034095999</v>
       </c>
       <c r="C80" s="2">
-        <v>17.666928474762202</v>
+        <v>17.7654144911609</v>
       </c>
       <c r="D80" s="2">
-        <v>1.97639777504185</v>
+        <v>1.10538597876494</v>
       </c>
       <c r="E80" s="2">
-        <v>24493.141</v>
+        <v>24837.682000000001</v>
       </c>
       <c r="F80" s="2">
-        <v>119.5</v>
+        <v>116.4</v>
       </c>
       <c r="G80" s="2">
-        <v>2914.88241235541</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2971.5336310562502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B81" s="2">
-        <v>4565.7836034095999</v>
+        <v>4746.4557190963196</v>
       </c>
       <c r="C81" s="2">
-        <v>17.7654144911609</v>
+        <v>18.159367984571301</v>
       </c>
       <c r="D81" s="2">
-        <v>1.10538597876494</v>
+        <v>1.05822924564772</v>
       </c>
       <c r="E81" s="2">
-        <v>24837.682000000001</v>
+        <v>25572.834999999999</v>
       </c>
       <c r="F81" s="2">
-        <v>116.4</v>
+        <v>115.5</v>
       </c>
       <c r="G81" s="2">
-        <v>2971.5336310562502</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3242.6005402833998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B82" s="2">
-        <v>4746.4557190963196</v>
+        <v>4949.1050522565602</v>
       </c>
       <c r="C82" s="2">
-        <v>18.159367984571301</v>
+        <v>18.445363753457301</v>
       </c>
       <c r="D82" s="2">
-        <v>1.05822924564772</v>
+        <v>1.5087054957393899</v>
       </c>
       <c r="E82" s="2">
-        <v>25572.834999999999</v>
+        <v>26198.735000000001</v>
       </c>
       <c r="F82" s="2">
-        <v>115.5</v>
+        <v>113.7</v>
       </c>
       <c r="G82" s="2">
-        <v>3242.6005402833998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3375.8325625720399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B83" s="2">
-        <v>4949.1050522565602</v>
+        <v>5153.2452155564797</v>
       </c>
       <c r="C83" s="2">
-        <v>18.445363753457301</v>
+        <v>18.684433854175701</v>
       </c>
       <c r="D83" s="2">
-        <v>1.5087054957393899</v>
+        <v>1.8043758215213399</v>
       </c>
       <c r="E83" s="2">
-        <v>26198.735000000001</v>
+        <v>27846.434000000001</v>
       </c>
       <c r="F83" s="2">
+        <v>117.1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>3265.6706075771499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>38869</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5349.6466776330999</v>
+      </c>
+      <c r="C84" s="2">
+        <v>19.577664656935202</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1.96388903254806</v>
+      </c>
+      <c r="E84" s="2">
+        <v>29134.017</v>
+      </c>
+      <c r="F84" s="2">
+        <v>118.1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>3453.6616198690099</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>38961</v>
+      </c>
+      <c r="B85" s="2">
+        <v>5542.7465637488904</v>
+      </c>
+      <c r="C85" s="2">
+        <v>19.648339945989498</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.8226399887762501</v>
+      </c>
+      <c r="E85" s="2">
+        <v>29969.506000000001</v>
+      </c>
+      <c r="F85" s="2">
+        <v>116.8</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3451.0597991823001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>39052</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5839.2119690998798</v>
+      </c>
+      <c r="C86" s="2">
+        <v>21.3123233753306</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2.14432693684503</v>
+      </c>
+      <c r="E86" s="2">
+        <v>30739.767</v>
+      </c>
+      <c r="F86" s="2">
+        <v>114.8</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3521.5966659812502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>39142</v>
+      </c>
+      <c r="B87" s="2">
+        <v>6265.0409670667696</v>
+      </c>
+      <c r="C87" s="2">
+        <v>22.0089430823129</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2.1074710179146301</v>
+      </c>
+      <c r="E87" s="2">
+        <v>32967.232000000004</v>
+      </c>
+      <c r="F87" s="2">
+        <v>116.5</v>
+      </c>
+      <c r="G87" s="2">
+        <v>3697.5298512632498</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>39234</v>
+      </c>
+      <c r="B88" s="2">
+        <v>6560.1789151058401</v>
+      </c>
+      <c r="C88" s="2">
+        <v>23.798724368015598</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2.8417543245321402</v>
+      </c>
+      <c r="E88" s="2">
+        <v>35087.006000000001</v>
+      </c>
+      <c r="F88" s="2">
+        <v>117.1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>3792.3188328932501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>39326</v>
+      </c>
+      <c r="B89" s="2">
+        <v>6866.0542795526299</v>
+      </c>
+      <c r="C89" s="2">
+        <v>25.855043941363999</v>
+      </c>
+      <c r="D89" s="2">
+        <v>4.1802409402157199</v>
+      </c>
+      <c r="E89" s="2">
+        <v>36994.849000000002</v>
+      </c>
+      <c r="F89" s="2">
+        <v>116.2</v>
+      </c>
+      <c r="G89" s="2">
+        <v>3946.3717422302602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>39417</v>
+      </c>
+      <c r="B90" s="2">
+        <v>7226.7067444479399</v>
+      </c>
+      <c r="C90" s="2">
+        <v>27.751244274916498</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3.5283136319799699</v>
+      </c>
+      <c r="E90" s="2">
+        <v>38364.464999999997</v>
+      </c>
+      <c r="F90" s="2">
+        <v>113.2</v>
+      </c>
+      <c r="G90" s="2">
+        <v>4049.6663840978899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>39508</v>
+      </c>
+      <c r="B91" s="2">
+        <v>7622.1110112162396</v>
+      </c>
+      <c r="C91" s="2">
+        <v>30.115714724226901</v>
+      </c>
+      <c r="D91" s="2">
+        <v>3.2624083871315102</v>
+      </c>
+      <c r="E91" s="2">
+        <v>40231.764000000003</v>
+      </c>
+      <c r="F91" s="2">
         <v>113.7</v>
       </c>
-      <c r="G83" s="2">
-        <v>3375.8325625720399</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>38777</v>
-      </c>
-      <c r="B84" s="2">
-        <v>5153.2452155564797</v>
-      </c>
-      <c r="C84" s="2">
-        <v>18.684433854175701</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1.8043758215213399</v>
-      </c>
-      <c r="E84" s="2">
-        <v>27846.434000000001</v>
-      </c>
-      <c r="F84" s="2">
-        <v>117.1</v>
-      </c>
-      <c r="G84" s="2">
-        <v>3265.6706075771499</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>38869</v>
-      </c>
-      <c r="B85" s="2">
-        <v>5349.6466776330999</v>
-      </c>
-      <c r="C85" s="2">
-        <v>19.577664656935202</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1.96388903254806</v>
-      </c>
-      <c r="E85" s="2">
-        <v>29134.017</v>
-      </c>
-      <c r="F85" s="2">
-        <v>118.1</v>
-      </c>
-      <c r="G85" s="2">
-        <v>3453.6616198690099</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>38961</v>
-      </c>
-      <c r="B86" s="2">
-        <v>5542.7465637488904</v>
-      </c>
-      <c r="C86" s="2">
-        <v>19.648339945989498</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1.8226399887762501</v>
-      </c>
-      <c r="E86" s="2">
-        <v>29969.506000000001</v>
-      </c>
-      <c r="F86" s="2">
-        <v>116.8</v>
-      </c>
-      <c r="G86" s="2">
-        <v>3451.0597991823001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>39052</v>
-      </c>
-      <c r="B87" s="2">
-        <v>5839.2119690998798</v>
-      </c>
-      <c r="C87" s="2">
-        <v>21.3123233753306</v>
-      </c>
-      <c r="D87" s="2">
-        <v>2.14432693684503</v>
-      </c>
-      <c r="E87" s="2">
-        <v>30739.767</v>
-      </c>
-      <c r="F87" s="2">
-        <v>114.8</v>
-      </c>
-      <c r="G87" s="2">
-        <v>3521.5966659812502</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>39142</v>
-      </c>
-      <c r="B88" s="2">
-        <v>6265.0409670667696</v>
-      </c>
-      <c r="C88" s="2">
-        <v>22.0089430823129</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2.1074710179146301</v>
-      </c>
-      <c r="E88" s="2">
-        <v>32967.232000000004</v>
-      </c>
-      <c r="F88" s="2">
-        <v>116.5</v>
-      </c>
-      <c r="G88" s="2">
-        <v>3697.5298512632498</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>39234</v>
-      </c>
-      <c r="B89" s="2">
-        <v>6560.1789151058401</v>
-      </c>
-      <c r="C89" s="2">
-        <v>23.798724368015598</v>
-      </c>
-      <c r="D89" s="2">
-        <v>2.8417543245321402</v>
-      </c>
-      <c r="E89" s="2">
-        <v>35087.006000000001</v>
-      </c>
-      <c r="F89" s="2">
-        <v>117.1</v>
-      </c>
-      <c r="G89" s="2">
-        <v>3792.3188328932501</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>39326</v>
-      </c>
-      <c r="B90" s="2">
-        <v>6866.0542795526299</v>
-      </c>
-      <c r="C90" s="2">
-        <v>25.855043941363999</v>
-      </c>
-      <c r="D90" s="2">
-        <v>4.1802409402157199</v>
-      </c>
-      <c r="E90" s="2">
-        <v>36994.849000000002</v>
-      </c>
-      <c r="F90" s="2">
-        <v>116.2</v>
-      </c>
-      <c r="G90" s="2">
-        <v>3946.3717422302602</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>39417</v>
-      </c>
-      <c r="B91" s="2">
-        <v>7226.7067444479399</v>
-      </c>
-      <c r="C91" s="2">
-        <v>27.751244274916498</v>
-      </c>
-      <c r="D91" s="2">
-        <v>3.5283136319799699</v>
-      </c>
-      <c r="E91" s="2">
-        <v>38364.464999999997</v>
-      </c>
-      <c r="F91" s="2">
-        <v>113.2</v>
-      </c>
       <c r="G91" s="2">
-        <v>4049.6663840978899</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3797.0430865540002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B92" s="2">
-        <v>7622.1110112162396</v>
+        <v>7958.2101492039201</v>
       </c>
       <c r="C92" s="2">
-        <v>30.115714724226901</v>
+        <v>30.766754021699199</v>
       </c>
       <c r="D92" s="2">
-        <v>3.2624083871315102</v>
+        <v>3.1899682191425298</v>
       </c>
       <c r="E92" s="2">
-        <v>40231.764000000003</v>
+        <v>41769.993999999999</v>
       </c>
       <c r="F92" s="2">
-        <v>113.7</v>
+        <v>112.9</v>
       </c>
       <c r="G92" s="2">
-        <v>3797.0430865540002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3960.0721945258001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B93" s="2">
-        <v>7958.2101492039201</v>
+        <v>8137.2535872946701</v>
       </c>
       <c r="C93" s="2">
-        <v>30.766754021699199</v>
+        <v>30.460315572651702</v>
       </c>
       <c r="D93" s="2">
-        <v>3.1899682191425298</v>
+        <v>2.6627823264620298</v>
       </c>
       <c r="E93" s="2">
-        <v>41769.993999999999</v>
+        <v>43227.432999999997</v>
       </c>
       <c r="F93" s="2">
-        <v>112.9</v>
+        <v>112.4</v>
       </c>
       <c r="G93" s="2">
-        <v>3960.0721945258001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3951.5657180835701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B94" s="2">
-        <v>8137.2535872946701</v>
+        <v>8149.7299692971601</v>
       </c>
       <c r="C94" s="2">
-        <v>30.460315572651702</v>
+        <v>29.054107922673701</v>
       </c>
       <c r="D94" s="2">
-        <v>2.6627823264620298</v>
+        <v>1.5556767046521101</v>
       </c>
       <c r="E94" s="2">
-        <v>43227.432999999997</v>
+        <v>44298.457000000002</v>
       </c>
       <c r="F94" s="2">
-        <v>112.4</v>
+        <v>111.9</v>
       </c>
       <c r="G94" s="2">
-        <v>3951.5657180835701</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4041.8683018721199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B95" s="2">
-        <v>8149.7299692971601</v>
+        <v>8145.4702162916401</v>
       </c>
       <c r="C95" s="2">
-        <v>29.054107922673701</v>
+        <v>28.929091077537201</v>
       </c>
       <c r="D95" s="2">
-        <v>1.5556767046521101</v>
+        <v>1.25291212551168</v>
       </c>
       <c r="E95" s="2">
-        <v>44298.457000000002</v>
+        <v>49881.618999999999</v>
       </c>
       <c r="F95" s="2">
-        <v>111.9</v>
+        <v>124.7</v>
       </c>
       <c r="G95" s="2">
-        <v>4041.8683018721199</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4312.5642674455103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B96" s="2">
-        <v>8145.4702162916401</v>
+        <v>8477.9610831373993</v>
       </c>
       <c r="C96" s="2">
-        <v>28.929091077537201</v>
+        <v>29.064850331650899</v>
       </c>
       <c r="D96" s="2">
-        <v>1.25291212551168</v>
+        <v>0.93840387592677998</v>
       </c>
       <c r="E96" s="2">
-        <v>49881.618999999999</v>
+        <v>54535.487999999998</v>
       </c>
       <c r="F96" s="2">
-        <v>124.7</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="G96" s="2">
-        <v>4312.5642674455103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4591.1629099902902</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B97" s="2">
-        <v>8477.9610831373993</v>
+        <v>8854.5475450772592</v>
       </c>
       <c r="C97" s="2">
-        <v>29.064850331650899</v>
+        <v>29.638215308201499</v>
       </c>
       <c r="D97" s="2">
-        <v>0.93840387592677998</v>
+        <v>1.375154607707</v>
       </c>
       <c r="E97" s="2">
-        <v>54535.487999999998</v>
+        <v>57859.091999999997</v>
       </c>
       <c r="F97" s="2">
-        <v>134.30000000000001</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="G97" s="2">
-        <v>4591.1629099902902</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4748.8118467753602</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B98" s="2">
-        <v>8854.5475450772592</v>
+        <v>9261.2094504160395</v>
       </c>
       <c r="C98" s="2">
-        <v>29.638215308201499</v>
+        <v>30.7569378737482</v>
       </c>
       <c r="D98" s="2">
-        <v>1.375154607707</v>
+        <v>1.52985231108665</v>
       </c>
       <c r="E98" s="2">
-        <v>57859.091999999997</v>
+        <v>60822.277999999998</v>
       </c>
       <c r="F98" s="2">
-        <v>138.80000000000001</v>
+        <v>140.5</v>
       </c>
       <c r="G98" s="2">
-        <v>4748.8118467753602</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4898.9958996455298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B99" s="2">
-        <v>9261.2094504160395</v>
+        <v>9646.6831381544998</v>
       </c>
       <c r="C99" s="2">
-        <v>30.7569378737482</v>
+        <v>31.1466069962683</v>
       </c>
       <c r="D99" s="2">
-        <v>1.52985231108665</v>
+        <v>2.14648897277281</v>
       </c>
       <c r="E99" s="2">
-        <v>60822.277999999998</v>
+        <v>64512.529000000002</v>
       </c>
       <c r="F99" s="2">
-        <v>140.5</v>
+        <v>143.6</v>
       </c>
       <c r="G99" s="2">
-        <v>4898.9958996455298</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4996.93516409317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B100" s="2">
-        <v>9646.6831381544998</v>
+        <v>10045.833921650999</v>
       </c>
       <c r="C100" s="2">
-        <v>31.1466069962683</v>
+        <v>31.783996588263001</v>
       </c>
       <c r="D100" s="2">
-        <v>2.14648897277281</v>
+        <v>2.34653280674969</v>
       </c>
       <c r="E100" s="2">
-        <v>64512.529000000002</v>
+        <v>68017.078999999998</v>
       </c>
       <c r="F100" s="2">
-        <v>143.6</v>
+        <v>145.69999999999999</v>
       </c>
       <c r="G100" s="2">
-        <v>4996.93516409317</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4991.2176675006403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B101" s="2">
-        <v>10045.833921650999</v>
+        <v>10435.2252579859</v>
       </c>
       <c r="C101" s="2">
-        <v>31.783996588263001</v>
+        <v>32.997369007445599</v>
       </c>
       <c r="D101" s="2">
-        <v>2.34653280674969</v>
+        <v>2.2621650589619402</v>
       </c>
       <c r="E101" s="2">
-        <v>68017.078999999998</v>
+        <v>70754.547999999995</v>
       </c>
       <c r="F101" s="2">
-        <v>145.69999999999999</v>
+        <v>145.6</v>
       </c>
       <c r="G101" s="2">
-        <v>4991.2176675006403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5091.1327003443303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B102" s="2">
-        <v>10435.2252579859</v>
+        <v>10955.0117581349</v>
       </c>
       <c r="C102" s="2">
-        <v>32.997369007445599</v>
+        <v>35.2486605440711</v>
       </c>
       <c r="D102" s="2">
-        <v>2.2621650589619402</v>
+        <v>4.3743390850524504</v>
       </c>
       <c r="E102" s="2">
-        <v>70754.547999999995</v>
+        <v>73466.876000000004</v>
       </c>
       <c r="F102" s="2">
-        <v>145.6</v>
+        <v>145.1</v>
       </c>
       <c r="G102" s="2">
-        <v>5091.1327003443303</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5241.7751273274798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B103" s="2">
-        <v>10955.0117581349</v>
+        <v>11520.934785096601</v>
       </c>
       <c r="C103" s="2">
-        <v>35.2486605440711</v>
+        <v>36.586175463717197</v>
       </c>
       <c r="D103" s="2">
-        <v>4.3743390850524504</v>
+        <v>3.0646229338158801</v>
       </c>
       <c r="E103" s="2">
-        <v>73466.876000000004</v>
+        <v>76943.987999999998</v>
       </c>
       <c r="F103" s="2">
-        <v>145.1</v>
+        <v>145.4</v>
       </c>
       <c r="G103" s="2">
-        <v>5241.7751273274798</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5538.8966156135502</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B104" s="2">
-        <v>11520.934785096601</v>
+        <v>12035.740810790299</v>
       </c>
       <c r="C104" s="2">
-        <v>36.586175463717197</v>
+        <v>38.188141297230601</v>
       </c>
       <c r="D104" s="2">
-        <v>3.0646229338158801</v>
+        <v>5.0037599873789</v>
       </c>
       <c r="E104" s="2">
-        <v>76943.987999999998</v>
+        <v>80363.176000000007</v>
       </c>
       <c r="F104" s="2">
-        <v>145.4</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="G104" s="2">
-        <v>5538.8966156135502</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5485.5008993092697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B105" s="2">
-        <v>12035.740810790299</v>
+        <v>12454.6378830056</v>
       </c>
       <c r="C105" s="2">
-        <v>38.188141297230601</v>
+        <v>39.065327938342598</v>
       </c>
       <c r="D105" s="2">
-        <v>5.0037599873789</v>
+        <v>3.9740684969186599</v>
       </c>
       <c r="E105" s="2">
-        <v>80363.176000000007</v>
+        <v>83234.138000000006</v>
       </c>
       <c r="F105" s="2">
-        <v>145.19999999999999</v>
+        <v>143.69999999999999</v>
       </c>
       <c r="G105" s="2">
-        <v>5485.5008993092697</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5558.1808178834799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B106" s="2">
-        <v>12454.6378830056</v>
+        <v>12662.695889877499</v>
       </c>
       <c r="C106" s="2">
-        <v>39.065327938342598</v>
+        <v>39.227637964590997</v>
       </c>
       <c r="D106" s="2">
-        <v>3.9740684969186599</v>
+        <v>3.9540013863006598</v>
       </c>
       <c r="E106" s="2">
-        <v>83234.138000000006</v>
+        <v>86846.59</v>
       </c>
       <c r="F106" s="2">
-        <v>143.69999999999999</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G106" s="2">
-        <v>5558.1808178834799</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5597.6610318970797</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B107" s="2">
-        <v>12662.695889877499</v>
+        <v>12948.680803520399</v>
       </c>
       <c r="C107" s="2">
-        <v>39.227637964590997</v>
+        <v>40.247956246743499</v>
       </c>
       <c r="D107" s="2">
-        <v>3.9540013863006598</v>
+        <v>3.9380721623961201</v>
       </c>
       <c r="E107" s="2">
-        <v>86846.59</v>
+        <v>91134.361999999994</v>
       </c>
       <c r="F107" s="2">
-        <v>144.80000000000001</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="G107" s="2">
-        <v>5597.6610318970797</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5482.2705076742805</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B108" s="2">
-        <v>12948.680803520399</v>
+        <v>13308.996662563</v>
       </c>
       <c r="C108" s="2">
-        <v>40.247956246743499</v>
+        <v>40.279809736870398</v>
       </c>
       <c r="D108" s="2">
-        <v>3.9380721623961201</v>
+        <v>2.6996311596435998</v>
       </c>
       <c r="E108" s="2">
-        <v>91134.361999999994</v>
+        <v>94968.721999999994</v>
       </c>
       <c r="F108" s="2">
-        <v>148.19999999999999</v>
+        <v>150.9</v>
       </c>
       <c r="G108" s="2">
-        <v>5482.2705076742805</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5783.3552836395402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B109" s="2">
-        <v>13308.996662563</v>
+        <v>13583.141152660301</v>
       </c>
       <c r="C109" s="2">
-        <v>40.279809736870398</v>
+        <v>40.815855801286602</v>
       </c>
       <c r="D109" s="2">
-        <v>2.6996311596435998</v>
+        <v>3.63721390750597</v>
       </c>
       <c r="E109" s="2">
-        <v>94968.721999999994</v>
+        <v>99074.403999999995</v>
       </c>
       <c r="F109" s="2">
-        <v>150.9</v>
+        <v>154.4</v>
       </c>
       <c r="G109" s="2">
-        <v>5783.3552836395402</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5943.2190407527596</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B110" s="2">
-        <v>13583.141152660301</v>
+        <v>13909.0556196573</v>
       </c>
       <c r="C110" s="2">
-        <v>40.815855801286602</v>
+        <v>41.644811281424097</v>
       </c>
       <c r="D110" s="2">
-        <v>3.63721390750597</v>
+        <v>3.2047370984282599</v>
       </c>
       <c r="E110" s="2">
-        <v>99074.403999999995</v>
+        <v>103141.92</v>
       </c>
       <c r="F110" s="2">
-        <v>154.4</v>
+        <v>157.4</v>
       </c>
       <c r="G110" s="2">
-        <v>5943.2190407527596</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6012.38806316108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B111" s="2">
-        <v>13909.0556196573</v>
+        <v>14296.7721812659</v>
       </c>
       <c r="C111" s="2">
-        <v>41.644811281424097</v>
+        <v>42.281527370392702</v>
       </c>
       <c r="D111" s="2">
-        <v>3.2047370984282599</v>
+        <v>3.64844499936157</v>
       </c>
       <c r="E111" s="2">
-        <v>103141.92</v>
+        <v>109549.863</v>
       </c>
       <c r="F111" s="2">
-        <v>157.4</v>
+        <v>163.6</v>
       </c>
       <c r="G111" s="2">
-        <v>6012.38806316108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6469.5632331561301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B112" s="2">
-        <v>14296.7721812659</v>
+        <v>14563.144293961201</v>
       </c>
       <c r="C112" s="2">
-        <v>42.281527370392702</v>
+        <v>42.874661973979897</v>
       </c>
       <c r="D112" s="2">
-        <v>3.64844499936157</v>
+        <v>6.0846914901198303</v>
       </c>
       <c r="E112" s="2">
-        <v>109549.863</v>
+        <v>114305.59</v>
       </c>
       <c r="F112" s="2">
-        <v>163.6</v>
+        <v>166.8</v>
       </c>
       <c r="G112" s="2">
-        <v>6469.5632331561301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6429.2333473239996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B113" s="2">
-        <v>14563.144293961201</v>
+        <v>14965.892488052799</v>
       </c>
       <c r="C113" s="2">
-        <v>42.874661973979897</v>
+        <v>43.769980961992097</v>
       </c>
       <c r="D113" s="2">
-        <v>6.0846914901198303</v>
+        <v>4.1190045528365102</v>
       </c>
       <c r="E113" s="2">
-        <v>114305.59</v>
+        <v>119303.61599999999</v>
       </c>
       <c r="F113" s="2">
-        <v>166.8</v>
+        <v>169.9</v>
       </c>
       <c r="G113" s="2">
-        <v>6429.2333473239996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6449.6403335508503</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B114" s="2">
-        <v>14965.892488052799</v>
+        <v>15348.665972442401</v>
       </c>
       <c r="C114" s="2">
-        <v>43.769980961992097</v>
+        <v>44.1618176889057</v>
       </c>
       <c r="D114" s="2">
-        <v>4.1190045528365102</v>
+        <v>4.9948762013043</v>
       </c>
       <c r="E114" s="2">
-        <v>119303.61599999999</v>
+        <v>123158.20299999999</v>
       </c>
       <c r="F114" s="2">
-        <v>169.9</v>
+        <v>170.8</v>
       </c>
       <c r="G114" s="2">
-        <v>6449.6403335508503</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6466.2837354295998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B115" s="2">
-        <v>15348.665972442401</v>
+        <v>15568.2133905504</v>
       </c>
       <c r="C115" s="2">
-        <v>44.1618176889057</v>
+        <v>44.615854830817497</v>
       </c>
       <c r="D115" s="2">
-        <v>4.9948762013043</v>
+        <v>3.6736333665681302</v>
       </c>
       <c r="E115" s="2">
-        <v>123158.20299999999</v>
+        <v>129037.94899999999</v>
       </c>
       <c r="F115" s="2">
-        <v>170.8</v>
+        <v>175.4</v>
       </c>
       <c r="G115" s="2">
-        <v>6466.2837354295998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6387.9466827019496</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B116" s="2">
-        <v>15568.2133905504</v>
+        <v>15878.994732610199</v>
       </c>
       <c r="C116" s="2">
-        <v>44.615854830817497</v>
+        <v>45.268404518146099</v>
       </c>
       <c r="D116" s="2">
-        <v>3.6736333665681302</v>
+        <v>3.0831742521435199</v>
       </c>
       <c r="E116" s="2">
-        <v>129037.94899999999</v>
+        <v>134410.51300000001</v>
       </c>
       <c r="F116" s="2">
-        <v>175.4</v>
+        <v>178.8</v>
       </c>
       <c r="G116" s="2">
-        <v>6387.9466827019496</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6375.8518106469901</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B117" s="2">
-        <v>15878.994732610199</v>
+        <v>16273.4428974562</v>
       </c>
       <c r="C117" s="2">
-        <v>45.268404518146099</v>
+        <v>45.537467538970802</v>
       </c>
       <c r="D117" s="2">
-        <v>3.0831742521435199</v>
+        <v>3.6284650838363901</v>
       </c>
       <c r="E117" s="2">
-        <v>134410.51300000001</v>
+        <v>138064.932</v>
       </c>
       <c r="F117" s="2">
-        <v>178.8</v>
+        <v>179.4</v>
       </c>
       <c r="G117" s="2">
-        <v>6375.8518106469901</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6423.1831889324603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B118" s="2">
-        <v>16273.4428974562</v>
+        <v>16536.892105393901</v>
       </c>
       <c r="C118" s="2">
-        <v>45.537467538970802</v>
+        <v>45.757652031190801</v>
       </c>
       <c r="D118" s="2">
-        <v>3.6284650838363901</v>
+        <v>4.0746407498339297</v>
       </c>
       <c r="E118" s="2">
-        <v>138064.932</v>
+        <v>142447.92499999999</v>
       </c>
       <c r="F118" s="2">
-        <v>179.4</v>
+        <v>181.5</v>
       </c>
       <c r="G118" s="2">
-        <v>6423.1831889324603</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6545.1637313186502</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B119" s="2">
-        <v>16536.892105393901</v>
+        <v>16716.341261273599</v>
       </c>
       <c r="C119" s="2">
-        <v>45.757652031190801</v>
+        <v>46.248756285809499</v>
       </c>
       <c r="D119" s="2">
-        <v>4.0746407498339297</v>
+        <v>4.6028124750010999</v>
       </c>
       <c r="E119" s="2">
-        <v>142447.92499999999</v>
+        <v>148125.20499999999</v>
       </c>
       <c r="F119" s="2">
-        <v>181.5</v>
+        <v>185.8</v>
       </c>
       <c r="G119" s="2">
-        <v>6545.1637313186502</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6397.0342658825102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B120" s="2">
-        <v>16716.341261273599</v>
+        <v>17093.632752060101</v>
       </c>
       <c r="C120" s="2">
-        <v>46.248756285809499</v>
+        <v>46.776827653251701</v>
       </c>
       <c r="D120" s="2">
-        <v>4.6028124750010999</v>
+        <v>2.4026795297639301</v>
       </c>
       <c r="E120" s="2">
-        <v>148125.20499999999</v>
+        <v>153081.51300000001</v>
       </c>
       <c r="F120" s="2">
-        <v>185.8</v>
+        <v>188.8</v>
       </c>
       <c r="G120" s="2">
-        <v>6397.0342658825102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6749.0975419184297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B121" s="2">
-        <v>17093.632752060101</v>
+        <v>17377.508878898701</v>
       </c>
       <c r="C121" s="2">
-        <v>46.776827653251701</v>
+        <v>47.1137915146548</v>
       </c>
       <c r="D121" s="2">
-        <v>2.4026795297639301</v>
+        <v>2.6535855596909701</v>
       </c>
       <c r="E121" s="2">
-        <v>153081.51300000001</v>
+        <v>158240.17499999999</v>
       </c>
       <c r="F121" s="2">
-        <v>188.8</v>
+        <v>192.3</v>
       </c>
       <c r="G121" s="2">
-        <v>6749.0975419184297</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6882.3595010940899</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B122" s="2">
-        <v>17377.508878898701</v>
+        <v>17624.802187699501</v>
       </c>
       <c r="C122" s="2">
-        <v>47.1137915146548</v>
+        <v>47.431228291293003</v>
       </c>
       <c r="D122" s="2">
-        <v>2.6535855596909701</v>
+        <v>2.30985527570152</v>
       </c>
       <c r="E122" s="2">
-        <v>158240.17499999999</v>
+        <v>164476.55799999999</v>
       </c>
       <c r="F122" s="2">
-        <v>192.3</v>
+        <v>197.3</v>
       </c>
       <c r="G122" s="2">
-        <v>6882.3595010940899</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7020.1776453429402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B123" s="2">
-        <v>17624.802187699501</v>
+        <v>17937.368931593701</v>
       </c>
       <c r="C123" s="2">
-        <v>47.431228291293003</v>
+        <v>48.682939330105199</v>
       </c>
       <c r="D123" s="2">
-        <v>2.30985527570152</v>
+        <v>2.4717366396899201</v>
       </c>
       <c r="E123" s="2">
-        <v>164476.55799999999</v>
+        <v>171119.13800000001</v>
       </c>
       <c r="F123" s="2">
-        <v>197.3</v>
+        <v>201.8</v>
       </c>
       <c r="G123" s="2">
-        <v>7020.1776453429402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7422.44143036064</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B124" s="2">
-        <v>17937.368931593701</v>
+        <v>18388.670275141401</v>
       </c>
       <c r="C124" s="2">
-        <v>48.682939330105199</v>
+        <v>48.794961419825803</v>
       </c>
       <c r="D124" s="2">
-        <v>2.4717366396899201</v>
+        <v>2.47061130454142</v>
       </c>
       <c r="E124" s="2">
-        <v>171119.13800000001</v>
+        <v>175176.209</v>
       </c>
       <c r="F124" s="2">
-        <v>201.8</v>
+        <v>202.3</v>
       </c>
       <c r="G124" s="2">
-        <v>7422.44143036064</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7496.3277970844301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B125" s="2">
-        <v>18388.670275141401</v>
+        <v>18813.0028131992</v>
       </c>
       <c r="C125" s="2">
-        <v>48.794961419825803</v>
+        <v>49.198784451737701</v>
       </c>
       <c r="D125" s="2">
-        <v>2.47061130454142</v>
+        <v>2.7476427519515401</v>
       </c>
       <c r="E125" s="2">
-        <v>175176.209</v>
+        <v>179461.37599999999</v>
       </c>
       <c r="F125" s="2">
+        <v>202.7</v>
+      </c>
+      <c r="G125" s="2">
+        <v>7659.0285116118002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B126" s="2">
+        <v>19375.667406811601</v>
+      </c>
+      <c r="C126" s="2">
+        <v>49.502316257604299</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2.8860170129087201</v>
+      </c>
+      <c r="E126" s="2">
+        <v>184830.53400000001</v>
+      </c>
+      <c r="F126" s="2">
+        <v>203.7</v>
+      </c>
+      <c r="G126" s="2">
+        <v>7711.2674908588197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B127" s="2">
+        <v>20064.050521061999</v>
+      </c>
+      <c r="C127" s="2">
+        <v>49.581973237108201</v>
+      </c>
+      <c r="D127" s="2">
+        <v>3.4548103915906299</v>
+      </c>
+      <c r="E127" s="2">
+        <v>192600.351</v>
+      </c>
+      <c r="F127" s="2">
+        <v>206.4</v>
+      </c>
+      <c r="G127" s="2">
+        <v>7798.8708852432601</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B128" s="2">
+        <v>20476.358483962598</v>
+      </c>
+      <c r="C128" s="2">
+        <v>50.3475703363031</v>
+      </c>
+      <c r="D128" s="2">
+        <v>3.5578746430088102</v>
+      </c>
+      <c r="E128" s="2">
+        <v>197828.70699999999</v>
+      </c>
+      <c r="F128" s="2">
+        <v>205.9</v>
+      </c>
+      <c r="G128" s="2">
+        <v>7843.4953865677498</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B129" s="2">
+        <v>20948.8231571412</v>
+      </c>
+      <c r="C129" s="2">
+        <v>50.680640771398402</v>
+      </c>
+      <c r="D129" s="2">
+        <v>3.6013169535897198</v>
+      </c>
+      <c r="E129" s="2">
+        <v>203564.55</v>
+      </c>
+      <c r="F129" s="2">
+        <v>205.8</v>
+      </c>
+      <c r="G129" s="2">
+        <v>7945.9742069714903</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B130" s="2">
+        <v>21545.822623834199</v>
+      </c>
+      <c r="C130" s="2">
+        <v>51.177680768343897</v>
+      </c>
+      <c r="D130" s="2">
+        <v>3.62429304386955</v>
+      </c>
+      <c r="E130" s="2">
+        <v>208296.935</v>
+      </c>
+      <c r="F130" s="2">
+        <v>204.6</v>
+      </c>
+      <c r="G130" s="2">
+        <v>8129.9513365984503</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B131" s="2">
+        <v>22355.309327706698</v>
+      </c>
+      <c r="C131" s="2">
+        <v>51.459979335494303</v>
+      </c>
+      <c r="D131" s="2">
+        <v>3.3142571503473301</v>
+      </c>
+      <c r="E131" s="2">
+        <v>215038.91399999999</v>
+      </c>
+      <c r="F131" s="2">
+        <v>205.2</v>
+      </c>
+      <c r="G131" s="2">
+        <v>8328.6336545161994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B132" s="2">
+        <v>22691.0717012901</v>
+      </c>
+      <c r="C132" s="2">
+        <v>52.009708753864899</v>
+      </c>
+      <c r="D132" s="2">
+        <v>3.5580533993986401</v>
+      </c>
+      <c r="E132" s="2">
+        <v>219951.451</v>
+      </c>
+      <c r="F132" s="2">
+        <v>203.7</v>
+      </c>
+      <c r="G132" s="2">
+        <v>8593.9465682808004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B133" s="2">
+        <v>23044.350897018201</v>
+      </c>
+      <c r="C133" s="2">
+        <v>52.968389010694899</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2.7938027737606999</v>
+      </c>
+      <c r="E133" s="2">
+        <v>224601.10699999999</v>
+      </c>
+      <c r="F133" s="2">
         <v>202.3</v>
       </c>
-      <c r="G125" s="2">
-        <v>7496.3277970844301</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>42614</v>
-      </c>
-      <c r="B126" s="2">
-        <v>18813.0028131992</v>
-      </c>
-      <c r="C126" s="2">
-        <v>49.198784451737701</v>
-      </c>
-      <c r="D126" s="2">
-        <v>2.7476427519515401</v>
-      </c>
-      <c r="E126" s="2">
-        <v>179461.37599999999</v>
-      </c>
-      <c r="F126" s="2">
-        <v>202.7</v>
-      </c>
-      <c r="G126" s="2">
-        <v>7659.0285116118002</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>42705</v>
-      </c>
-      <c r="B127" s="2">
-        <v>19375.667406811601</v>
-      </c>
-      <c r="C127" s="2">
-        <v>49.502316257604299</v>
-      </c>
-      <c r="D127" s="2">
-        <v>2.8860170129087201</v>
-      </c>
-      <c r="E127" s="2">
-        <v>184830.53400000001</v>
-      </c>
-      <c r="F127" s="2">
-        <v>203.7</v>
-      </c>
-      <c r="G127" s="2">
-        <v>7711.2674908588197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>42795</v>
-      </c>
-      <c r="B128" s="2">
-        <v>20064.050521061999</v>
-      </c>
-      <c r="C128" s="2">
-        <v>49.581973237108201</v>
-      </c>
-      <c r="D128" s="2">
-        <v>3.4548103915906299</v>
-      </c>
-      <c r="E128" s="2">
-        <v>192600.351</v>
-      </c>
-      <c r="F128" s="2">
-        <v>206.4</v>
-      </c>
-      <c r="G128" s="2">
-        <v>7798.8708852432601</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B129" s="2">
-        <v>20476.358483962598</v>
-      </c>
-      <c r="C129" s="2">
-        <v>50.3475703363031</v>
-      </c>
-      <c r="D129" s="2">
-        <v>3.5578746430088102</v>
-      </c>
-      <c r="E129" s="2">
-        <v>197828.70699999999</v>
-      </c>
-      <c r="F129" s="2">
-        <v>205.9</v>
-      </c>
-      <c r="G129" s="2">
-        <v>7843.4953865677498</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>42979</v>
-      </c>
-      <c r="B130" s="2">
-        <v>20948.8231571412</v>
-      </c>
-      <c r="C130" s="2">
-        <v>50.680640771398402</v>
-      </c>
-      <c r="D130" s="2">
-        <v>3.6013169535897198</v>
-      </c>
-      <c r="E130" s="2">
-        <v>203564.55</v>
-      </c>
-      <c r="F130" s="2">
-        <v>205.8</v>
-      </c>
-      <c r="G130" s="2">
-        <v>7945.9742069714903</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>43070</v>
-      </c>
-      <c r="B131" s="2">
-        <v>21545.822623834199</v>
-      </c>
-      <c r="C131" s="2">
-        <v>51.177680768343897</v>
-      </c>
-      <c r="D131" s="2">
-        <v>3.62429304386955</v>
-      </c>
-      <c r="E131" s="2">
-        <v>208296.935</v>
-      </c>
-      <c r="F131" s="2">
-        <v>204.6</v>
-      </c>
-      <c r="G131" s="2">
-        <v>8129.9513365984503</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>43160</v>
-      </c>
-      <c r="B132" s="2">
-        <v>22355.309327706698</v>
-      </c>
-      <c r="C132" s="2">
-        <v>51.459979335494303</v>
-      </c>
-      <c r="D132" s="2">
-        <v>3.3142571503473301</v>
-      </c>
-      <c r="E132" s="2">
-        <v>215038.91399999999</v>
-      </c>
-      <c r="F132" s="2">
-        <v>205.2</v>
-      </c>
-      <c r="G132" s="2">
-        <v>8328.6336545161994</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B133" s="2">
-        <v>22691.0717012901</v>
-      </c>
-      <c r="C133" s="2">
-        <v>52.009708753864899</v>
-      </c>
-      <c r="D133" s="2">
-        <v>3.5580533993986401</v>
-      </c>
-      <c r="E133" s="2">
-        <v>219951.451</v>
-      </c>
-      <c r="F133" s="2">
-        <v>203.7</v>
-      </c>
       <c r="G133" s="2">
-        <v>8593.9465682808004</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8742.4448541192796</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B134" s="2">
-        <v>23044.350897018201</v>
+        <v>23638.4110106103</v>
       </c>
       <c r="C134" s="2">
-        <v>52.968389010694899</v>
+        <v>52.963140343381497</v>
       </c>
       <c r="D134" s="2">
-        <v>2.7938027737606999</v>
+        <v>3.0003918667079801</v>
       </c>
       <c r="E134" s="2">
-        <v>224601.10699999999</v>
+        <v>228783.22899999999</v>
       </c>
       <c r="F134" s="2">
-        <v>202.3</v>
+        <v>200.7</v>
       </c>
       <c r="G134" s="2">
-        <v>8742.4448541192796</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8991.5919814713598</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B135" s="2">
-        <v>23638.4110106103</v>
+        <v>24205.951797732399</v>
       </c>
       <c r="C135" s="2">
-        <v>52.963140343381497</v>
+        <v>53.614879762681099</v>
       </c>
       <c r="D135" s="2">
-        <v>3.0003918667079801</v>
+        <v>2.9147110001313399</v>
       </c>
       <c r="E135" s="2">
-        <v>228783.22899999999</v>
+        <v>238095.66200000001</v>
       </c>
       <c r="F135" s="2">
-        <v>200.7</v>
+        <v>204.8</v>
       </c>
       <c r="G135" s="2">
-        <v>8991.5919814713598</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8888.9829921407709</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B136" s="2">
-        <v>24205.951797732399</v>
+        <v>24407.277656940099</v>
       </c>
       <c r="C136" s="2">
-        <v>53.614879762681099</v>
+        <v>54.779069914857303</v>
       </c>
       <c r="D136" s="2">
-        <v>2.9147110001313399</v>
+        <v>2.6079599219081899</v>
       </c>
       <c r="E136" s="2">
-        <v>238095.66200000001</v>
+        <v>243785.60200000001</v>
       </c>
       <c r="F136" s="2">
         <v>204.8</v>
       </c>
       <c r="G136" s="2">
-        <v>8888.9829921407709</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9242.8301083821898</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B137" s="2">
-        <v>24407.277656940099</v>
+        <v>24613.967058248199</v>
       </c>
       <c r="C137" s="2">
-        <v>54.779069914857303</v>
+        <v>55.949413995630501</v>
       </c>
       <c r="D137" s="2">
-        <v>2.6079599219081899</v>
+        <v>2.7763892441480502</v>
       </c>
       <c r="E137" s="2">
-        <v>243785.60200000001</v>
+        <v>249687.39</v>
       </c>
       <c r="F137" s="2">
-        <v>204.8</v>
+        <v>205.5</v>
       </c>
       <c r="G137" s="2">
-        <v>9242.8301083821898</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9362.4032110955195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B138" s="2">
-        <v>24613.967058248199</v>
+        <v>25220.603734476899</v>
       </c>
       <c r="C138" s="2">
-        <v>55.949413995630501</v>
+        <v>57.372451709198003</v>
       </c>
       <c r="D138" s="2">
-        <v>2.7763892441480502</v>
+        <v>2.50012077653327</v>
       </c>
       <c r="E138" s="2">
-        <v>249687.39</v>
+        <v>254814.25</v>
       </c>
       <c r="F138" s="2">
-        <v>205.5</v>
+        <v>205.6</v>
       </c>
       <c r="G138" s="2">
-        <v>9362.4032110955195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9572.6424946059706</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B139" s="2">
-        <v>25220.603734476899</v>
+        <v>23154.211953315898</v>
       </c>
       <c r="C139" s="2">
-        <v>57.372451709198003</v>
+        <v>57.860690643949397</v>
       </c>
       <c r="D139" s="2">
-        <v>2.50012077653327</v>
+        <v>2.14782905579488</v>
       </c>
       <c r="E139" s="2">
-        <v>254814.25</v>
+        <v>266383.26699999999</v>
       </c>
       <c r="F139" s="2">
-        <v>205.6</v>
+        <v>217.2</v>
       </c>
       <c r="G139" s="2">
-        <v>9572.6424946059706</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9095.9503083345298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B140" s="2">
-        <v>23154.211953315898</v>
+        <v>25051.527642930399</v>
       </c>
       <c r="C140" s="2">
-        <v>57.860690643949397</v>
+        <v>57.326161378015797</v>
       </c>
       <c r="D140" s="2">
-        <v>2.14782905579488</v>
+        <v>2.24110373944775</v>
       </c>
       <c r="E140" s="2">
-        <v>266383.26699999999</v>
+        <v>276139.81099999999</v>
       </c>
       <c r="F140" s="2">
-        <v>217.2</v>
+        <v>222.5</v>
       </c>
       <c r="G140" s="2">
-        <v>9095.9503083345298</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9552.1463177982405</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B141" s="2">
-        <v>25051.527642930399</v>
+        <v>25949.628238714798</v>
       </c>
       <c r="C141" s="2">
-        <v>57.326161378015797</v>
+        <v>57.652977229048297</v>
       </c>
       <c r="D141" s="2">
-        <v>2.24110373944775</v>
+        <v>2.3612814771570299</v>
       </c>
       <c r="E141" s="2">
-        <v>276139.81099999999</v>
+        <v>283465.859</v>
       </c>
       <c r="F141" s="2">
-        <v>222.5</v>
+        <v>224.2</v>
       </c>
       <c r="G141" s="2">
-        <v>9552.1463177982405</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9878.4726447847897</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B142" s="2">
-        <v>25949.628238714798</v>
+        <v>26947.321718359799</v>
       </c>
       <c r="C142" s="2">
-        <v>57.652977229048297</v>
+        <v>57.580781041889999</v>
       </c>
       <c r="D142" s="2">
-        <v>2.3612814771570299</v>
-      </c>
-      <c r="E142" s="2">
-        <v>283465.859</v>
-      </c>
-      <c r="F142" s="2">
-        <v>224.2</v>
-      </c>
+        <v>2.2871641657776398</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
       <c r="G142" s="2">
-        <v>9878.4726447847897</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>44166</v>
-      </c>
-      <c r="B143" s="2">
-        <v>26947.321718359799</v>
-      </c>
-      <c r="C143" s="2">
-        <v>57.580781041889999</v>
-      </c>
-      <c r="D143" s="2">
-        <v>2.2871641657776398</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2">
         <v>10139.0384954443</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>44256</v>
-      </c>
-      <c r="B144" s="2">
-        <v>28266.020402233498</v>
-      </c>
-      <c r="C144" s="2">
-        <v>58.104585979614797</v>
-      </c>
-      <c r="D144" s="2">
-        <v>2.3808178326629799</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2">
-        <v>10461.7465002768</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6765611-5619-6C49-8B24-84A3CA577174}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
